--- a/GUIA 5/Roles.xlsx
+++ b/GUIA 5/Roles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MINEDUCYT\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GUIA 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6C1BFA6-45A6-44FC-82FF-58C1DED1A129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBEFEA5-8B61-47BD-BECF-7F3A82B37377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{EC442CDB-CD11-4D39-82AB-C32C372F4B4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EC442CDB-CD11-4D39-82AB-C32C372F4B4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>ROL</t>
   </si>
@@ -53,27 +53,6 @@
     <t>Administrador: Todos los permisos</t>
   </si>
   <si>
-    <t>Administrador@empresa.com</t>
-  </si>
-  <si>
-    <t>empleado1@empresa.com</t>
-  </si>
-  <si>
-    <t>empleado2@empresa.com</t>
-  </si>
-  <si>
-    <t>empleado3@empresa.com</t>
-  </si>
-  <si>
-    <t>empleado4@empresa.com</t>
-  </si>
-  <si>
-    <t>empleado5@empresa.com</t>
-  </si>
-  <si>
-    <t>empleado6@empresa.com</t>
-  </si>
-  <si>
     <t>Cajero</t>
   </si>
   <si>
@@ -89,32 +68,50 @@
     <t>Gerente</t>
   </si>
   <si>
-    <t>CRUD sobre las tablas de empelados</t>
-  </si>
-  <si>
-    <t>CRUD sobre las tablas de inventario y pedidos</t>
-  </si>
-  <si>
-    <t>CRUD sobre las tablas de cajero ventas y bodeguero y RRHH</t>
-  </si>
-  <si>
-    <t>CRUD Sobre tablas de facturacion e inventario ,stock</t>
-  </si>
-  <si>
-    <t>CRUD sobre tablas de inventario y stock</t>
-  </si>
-  <si>
     <t>TABLAS DE ROLES Y PERMISOS  GRUPO: ZAPATERIA</t>
   </si>
   <si>
     <t>LABORATORIO DE BASE DE DATOS</t>
+  </si>
+  <si>
+    <t>rrhh</t>
+  </si>
+  <si>
+    <t>vende</t>
+  </si>
+  <si>
+    <t>caje</t>
+  </si>
+  <si>
+    <t>geren</t>
+  </si>
+  <si>
+    <t>sys</t>
+  </si>
+  <si>
+    <t>bode</t>
+  </si>
+  <si>
+    <t>CRUD(clientes,ventas,detalle de venta,factura de venta,direcciones,metodos de pago)   LECTURA(distritos,municipios,departamentos)</t>
+  </si>
+  <si>
+    <t>CRUD(Empleados, roles, opciones, asignacionRolesOpciones, usuarios)    LECTURA(Cargos, Departamentos, Municipios, Distritos, Direcciones)</t>
+  </si>
+  <si>
+    <t>CRUD(Clientes, Zapatos, Ventas, Detalles_De_Ventas, Factura_De_Ventas, Direcciones)   LECTURA(distritos,municipios,departamentos)</t>
+  </si>
+  <si>
+    <t>CRUD(Inventario)   LECTURA(Zapatos, Detalles_De_Ventas, Detalles_De_Pedidos)</t>
+  </si>
+  <si>
+    <t>CRUD(Departamentos, Municipios, Distritos, Direcciones, Clientes, Sucursales, Proveedores, Empleados, Ventas, Pedidos, Zapatos, Detalles_De_Ventas, Detalles_De_Pedidos, Factura_De_Ventas, Factura_De_Compras)   LECTURA (Categoria, Tipo_De_Material, Inventario, Marca, Formas_De_Pagos, roles, opciones, asignacionRolesOpciones, usuarios)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +143,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +175,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -189,17 +212,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -537,123 +575,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712275AB-3ED2-4D04-94B7-26F9AECB0A54}">
   <dimension ref="B3:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
-    <col min="3" max="3" width="55.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="138.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
-        <v>23</v>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" xr:uid="{FEAB2DC1-56F3-4025-A056-37E803D6F352}"/>
-    <hyperlink ref="D8" r:id="rId2" xr:uid="{D34FE761-A18B-481F-AD89-FD8239D07325}"/>
-    <hyperlink ref="D9:D13" r:id="rId3" display="empleado1@empresa.com" xr:uid="{CF21AED7-5F83-40B0-B5E2-1A339C03B07A}"/>
-    <hyperlink ref="D13" r:id="rId4" xr:uid="{4F878214-D32F-4B9F-A90D-C11D42ED54E8}"/>
-    <hyperlink ref="D12" r:id="rId5" xr:uid="{2C8C5C39-9324-4EB2-84DF-7D999C82897B}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{2F5F91E5-665E-4368-AF99-7FB46CBD7BEF}"/>
-    <hyperlink ref="D10" r:id="rId7" xr:uid="{A2DE99E3-271E-47C1-AF60-CE4D87B45AD6}"/>
-    <hyperlink ref="D11" r:id="rId8" xr:uid="{B4C5F15C-B17C-4881-A861-3802828902E5}"/>
+    <hyperlink ref="D7" r:id="rId1" display="Administrador@empresa.com" xr:uid="{FEAB2DC1-56F3-4025-A056-37E803D6F352}"/>
+    <hyperlink ref="D9" r:id="rId2" display="vendedor@empresa.com" xr:uid="{2F5F91E5-665E-4368-AF99-7FB46CBD7BEF}"/>
+    <hyperlink ref="D12" r:id="rId3" display="rrhh@empresa.com" xr:uid="{2C8C5C39-9324-4EB2-84DF-7D999C82897B}"/>
+    <hyperlink ref="D11" r:id="rId4" display="vendedor@empresa.com" xr:uid="{08A3688B-39C0-47FA-8038-C8D6EFAE0A1B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>